--- a/Dashboards-test/RIOT.xlsx
+++ b/Dashboards-test/RIOT.xlsx
@@ -26,7 +26,7 @@
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
     <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$53</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$53</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$53</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -61,39 +61,36 @@
     <x:t>Eazy clap</x:t>
   </x:si>
   <x:si>
+    <x:t>Mister D</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hurb99</x:t>
   </x:si>
   <x:si>
-    <x:t>Mister D</x:t>
+    <x:t>Yt Yolo Animate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Achintya46</x:t>
   </x:si>
   <x:si>
     <x:t>mc1moto</x:t>
   </x:si>
   <x:si>
-    <x:t>Yt Yolo Animate</x:t>
+    <x:t>Alaska</x:t>
   </x:si>
   <x:si>
     <x:t>Babatunde</x:t>
   </x:si>
   <x:si>
-    <x:t>Achintya46</x:t>
-  </x:si>
-  <x:si>
     <x:t>Okaychessplayer</x:t>
   </x:si>
   <x:si>
-    <x:t>Alaska</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dev1ce</x:t>
+    <x:t>glitzerpups</x:t>
   </x:si>
   <x:si>
     <x:t>alejandralo343</x:t>
   </x:si>
   <x:si>
-    <x:t>glitzerpups</x:t>
-  </x:si>
-  <x:si>
     <x:t>POSIEDON</x:t>
   </x:si>
   <x:si>
@@ -106,24 +103,30 @@
     <x:t>Jingles</x:t>
   </x:si>
   <x:si>
+    <x:t>CV Champion</x:t>
+  </x:si>
+  <x:si>
     <x:t>general_OUST</x:t>
   </x:si>
   <x:si>
-    <x:t>CV Champion</x:t>
-  </x:si>
-  <x:si>
     <x:t>Abraka</x:t>
   </x:si>
   <x:si>
     <x:t>MUKU mukunth 4</x:t>
   </x:si>
   <x:si>
-    <x:t>MAXIM Fr</x:t>
-  </x:si>
-  <x:si>
     <x:t>your own mom</x:t>
   </x:si>
   <x:si>
+    <x:t>palches</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hai Duy Huynh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keep Killing It</x:t>
+  </x:si>
+  <x:si>
     <x:t>Conquistador</x:t>
   </x:si>
   <x:si>
@@ -157,9 +160,6 @@
     <x:t>SaNNi3</x:t>
   </x:si>
   <x:si>
-    <x:t>Hai Duy Huynh</x:t>
-  </x:si>
-  <x:si>
     <x:t>XXDARKXX</x:t>
   </x:si>
   <x:si>
@@ -214,7 +214,7 @@
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>11,3 (2438/215)</x:t>
+    <x:t>10,5 (3952/376)</x:t>
   </x:si>
   <x:si>
     <x:t>0,0 (0/0)</x:t>
@@ -235,40 +235,10 @@
     <x:t>10,4 (856/82)</x:t>
   </x:si>
   <x:si>
-    <x:t>10,8 (2529/234)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,0 (60/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,0 (105/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,3 (359/35)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,5 (7/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,4 (103/16)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,6 (707/56)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,5 (239/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23,8 (95/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,3 (121/13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,4 (429/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,2 (304/25)</x:t>
+    <x:t>9,2 (1338/145)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,0 (176/16)</x:t>
   </x:si>
   <x:si>
     <x:t>9,2 (979/106)</x:t>
@@ -304,7 +274,7 @@
     <x:t>3,4 (41/12)</x:t>
   </x:si>
   <x:si>
-    <x:t>7,7 (2573/336)</x:t>
+    <x:t>7,6 (2867/377)</x:t>
   </x:si>
   <x:si>
     <x:t>10,6 (728/69)</x:t>
@@ -322,7 +292,28 @@
     <x:t>5,9 (436/74)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,9 (3261/552)</x:t>
+    <x:t>9,9 (148/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6 (146/26)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,0 (125/21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (8/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,2 (31/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (12/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,8 (74/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,8 (3690/639)</x:t>
   </x:si>
   <x:si>
     <x:t>3,8 (115/30)</x:t>
@@ -361,7 +352,10 @@
     <x:t>8,8 (299/34)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,6 (5340/1161)</x:t>
+    <x:t>4,9 (429/87)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,6 (5592/1212)</x:t>
   </x:si>
   <x:si>
     <x:t>6,0 (596/100)</x:t>
@@ -400,7 +394,10 @@
     <x:t>4,8 (472/98)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,5 (2773/620)</x:t>
+    <x:t>4,9 (252/51)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,5 (2908/648)</x:t>
   </x:si>
   <x:si>
     <x:t>1,4 (76/54)</x:t>
@@ -439,7 +436,10 @@
     <x:t>5,2 (192/37)</x:t>
   </x:si>
   <x:si>
-    <x:t>4,3 (4219/984)</x:t>
+    <x:t>4,8 (135/28)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,3 (4350/1008)</x:t>
   </x:si>
   <x:si>
     <x:t>3,0 (285/96)</x:t>
@@ -469,7 +469,70 @@
     <x:t>2,8 (150/54)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4 (1258/374)</x:t>
+    <x:t>5,5 (131/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4 (5311/1571)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (37/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (283/124)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (28/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (1179/424)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (694/279)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (866/268)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,3 (314/50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,3 (64/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,7 (507/76)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,3 (559/170)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,7 (780/138)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,3 (1082/326)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,6 (3/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (496/166)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,5 (455/129)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,9 (128/26)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (587/183)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1 (564/180)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,7 (23/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (1449/455)</x:t>
   </x:si>
   <x:si>
     <x:t>7,2 (43/6)</x:t>
@@ -490,55 +553,10 @@
     <x:t>4,2 (429/101)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,3 (1082/326)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,6 (3/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (496/166)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,5 (455/129)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,9 (128/26)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (4531/1433)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,1 (37/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (283/124)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (28/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (1179/424)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (694/279)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (866/268)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,3 (314/50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,3 (64/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,7 (507/76)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,3 (559/170)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (1699/629)</x:t>
+    <x:t>2,4 (191/81)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (2004/707)</x:t>
   </x:si>
   <x:si>
     <x:t>2,6 (117/45)</x:t>
@@ -577,7 +595,64 @@
     <x:t>2,8 (174/62)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,5 (1351/534)</x:t>
+    <x:t>3,9 (305/78)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (932/370)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (4/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,0 (117/13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (60/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (60/47)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (141/44)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (106/73)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (5/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (94/45)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8 (203/54)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (142/55)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (1288/522)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (159/60)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (48/29)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,5 (87/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (388/167)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (246/96)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5 (360/145)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (1531/632)</x:t>
   </x:si>
   <x:si>
     <x:t>2,4 (235/99)</x:t>
@@ -604,85 +679,52 @@
     <x:t>3,4 (203/59)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,5 (790/315)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (4/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,0 (117/13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (60/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (60/47)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (141/44)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (106/73)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (5/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (94/45)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8 (203/54)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (1288/522)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (159/60)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (48/29)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,5 (87/25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (388/167)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (246/96)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (360/145)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5 (580/236)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (89/28)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (90/55)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (26/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,5 (18/4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (10/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (203/63)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (99/49)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (45/16)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (4885/2089)</x:t>
+    <x:t>2,0 (167/85)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (13/13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (3699/1528)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (191/85)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (215/108)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (204/75)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (359/215)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (596/201)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (157/97)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (410/217)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (208/99)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (277/117)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (278/133)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,3 (682/160)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,8 (122/21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (4889/2092)</x:t>
   </x:si>
   <x:si>
     <x:t>1,8 (231/126)</x:t>
@@ -721,37 +763,28 @@
     <x:t>2,9 (382/134)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,1 (2895/1347)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (191/85)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (215/108)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7 (204/75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (359/215)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (596/201)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (157/97)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (410/217)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (208/99)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (277/117)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (278/133)</x:t>
+    <x:t>1,3 (4/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (937/428)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,5 (2/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (187/82)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (230/86)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (205/95)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (156/86)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (156/73)</x:t>
   </x:si>
   <x:si>
     <x:t>2,1 (2987/1442)</x:t>
@@ -775,7 +808,7 @@
     <x:t>2,0 (397/202)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,7 (1492/857)</x:t>
+    <x:t>1,7 (1662/972)</x:t>
   </x:si>
   <x:si>
     <x:t>2,3 (348/154)</x:t>
@@ -805,7 +838,10 @@
     <x:t>1,1 (43/39)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,6 (2260/1431)</x:t>
+    <x:t>1,5 (170/115)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (2724/1655)</x:t>
   </x:si>
   <x:si>
     <x:t>1,3 (137/105)</x:t>
@@ -833,6 +869,12 @@
   </x:si>
   <x:si>
     <x:t>1,7 (219/127)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (163/90)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (301/134)</x:t>
   </x:si>
   <x:si>
     <x:t>1,6 (2035/1291)</x:t>
@@ -1348,10 +1390,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>30620.6977048611</x:v>
+        <x:v>27372.5034285714</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>1806646.58175</x:v>
+        <x:v>1822413.25729167</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
         <x:v>44721.8700208333</x:v>
@@ -1388,6 +1430,12 @@
       </x:c>
       <x:c r="P2" s="16" t="n">
         <x:v>30297.6701458327</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>15766.6755416666</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1395,34 +1443,52 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>29528.7721874999</x:v>
+        <x:v>27069.1164866073</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>341950.165145834</x:v>
-      </x:c>
-      <x:c r="E3" s="16" t="s"/>
-      <x:c r="F3" s="16" t="s"/>
-      <x:c r="G3" s="16" t="s"/>
-      <x:c r="H3" s="16" t="s"/>
-      <x:c r="I3" s="16" t="s"/>
-      <x:c r="J3" s="16" t="s"/>
+        <x:v>818823.775749997</x:v>
+      </x:c>
+      <x:c r="E3" s="16" t="n">
+        <x:v>2727.72416666662</x:v>
+      </x:c>
+      <x:c r="F3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H3" s="16" t="n">
+        <x:v>10583.3689999998</x:v>
+      </x:c>
+      <x:c r="I3" s="16" t="n">
+        <x:v>1893.54585416667</x:v>
+      </x:c>
+      <x:c r="J3" s="16" t="n">
+        <x:v>62040.2821874997</x:v>
+      </x:c>
       <x:c r="K3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>48286.4560416664</x:v>
       </x:c>
       <x:c r="L3" s="16" t="n">
-        <x:v>53411.7279999999</x:v>
+        <x:v>72069.8155416679</x:v>
       </x:c>
       <x:c r="M3" s="16" t="n">
-        <x:v>4021.48133333333</x:v>
+        <x:v>26255.974291667</x:v>
       </x:c>
       <x:c r="N3" s="16" t="n">
-        <x:v>48171.3381249998</x:v>
+        <x:v>4860.29802083317</x:v>
       </x:c>
       <x:c r="O3" s="16" t="n">
-        <x:v>42048.6603124999</x:v>
+        <x:v>43845.115270834</x:v>
       </x:c>
       <x:c r="P3" s="16" t="n">
-        <x:v>29519.4253541664</x:v>
+        <x:v>45662.5281250002</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>60742.5223125007</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1430,46 +1496,40 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>26518.7590416668</x:v>
+        <x:v>24832.1613854166</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>758081.253437497</x:v>
-      </x:c>
-      <x:c r="E4" s="16" t="n">
-        <x:v>2727.72416666662</x:v>
-      </x:c>
-      <x:c r="F4" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G4" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="16" t="n">
-        <x:v>10583.3689999998</x:v>
-      </x:c>
-      <x:c r="I4" s="16" t="n">
-        <x:v>1893.54585416667</x:v>
-      </x:c>
-      <x:c r="J4" s="16" t="n">
-        <x:v>62040.2821874997</x:v>
-      </x:c>
+        <x:v>363434.823104167</x:v>
+      </x:c>
+      <x:c r="E4" s="16" t="s"/>
+      <x:c r="F4" s="16" t="s"/>
+      <x:c r="G4" s="16" t="s"/>
+      <x:c r="H4" s="16" t="s"/>
+      <x:c r="I4" s="16" t="s"/>
+      <x:c r="J4" s="16" t="s"/>
       <x:c r="K4" s="16" t="n">
-        <x:v>48286.4560416664</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L4" s="16" t="n">
-        <x:v>72069.8155416679</x:v>
+        <x:v>53411.7279999999</x:v>
       </x:c>
       <x:c r="M4" s="16" t="n">
-        <x:v>26255.974291667</x:v>
+        <x:v>4021.48133333333</x:v>
       </x:c>
       <x:c r="N4" s="16" t="n">
-        <x:v>4860.29802083317</x:v>
+        <x:v>48171.3381249998</x:v>
       </x:c>
       <x:c r="O4" s="16" t="n">
-        <x:v>43845.115270834</x:v>
+        <x:v>42048.6603124999</x:v>
       </x:c>
       <x:c r="P4" s="16" t="n">
-        <x:v>45662.5281250002</x:v>
+        <x:v>29519.4253541664</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>11313.6473333333</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>10171.0106250001</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1477,45 +1537,51 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>19175.5435555556</x:v>
+        <x:v>17830.4569791669</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>921647.85547917</x:v>
+        <x:v>2080910.15245834</x:v>
       </x:c>
       <x:c r="E5" s="16" t="n">
-        <x:v>16270.0001458335</x:v>
+        <x:v>5430.58885416645</x:v>
       </x:c>
       <x:c r="F5" s="16" t="n">
-        <x:v>50600.5186666669</x:v>
+        <x:v>23189.2932291664</x:v>
       </x:c>
       <x:c r="G5" s="16" t="n">
-        <x:v>7307.15625</x:v>
+        <x:v>10602.5471875004</x:v>
       </x:c>
       <x:c r="H5" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>20978.2617500003</x:v>
       </x:c>
       <x:c r="I5" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>8710.81750000035</x:v>
       </x:c>
       <x:c r="J5" s="16" t="n">
-        <x:v>30206.4599583335</x:v>
+        <x:v>22895.3320833331</x:v>
       </x:c>
       <x:c r="K5" s="16" t="n">
-        <x:v>16226.5609375006</x:v>
+        <x:v>29157.9806041671</x:v>
       </x:c>
       <x:c r="L5" s="16" t="n">
-        <x:v>4362.51477083331</x:v>
+        <x:v>2484.00737500004</x:v>
       </x:c>
       <x:c r="M5" s="16" t="n">
-        <x:v>68068.8420208329</x:v>
+        <x:v>44131.5190416682</x:v>
       </x:c>
       <x:c r="N5" s="16" t="n">
-        <x:v>28209.4745833331</x:v>
+        <x:v>23079.841541667</x:v>
       </x:c>
       <x:c r="O5" s="16" t="n">
-        <x:v>8854.99533333327</x:v>
+        <x:v>16931.2032500003</x:v>
       </x:c>
       <x:c r="P5" s="16" t="n">
+        <x:v>19490.0502708333</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>22544.9550208331</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1524,46 +1590,52 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>18923.4535572919</x:v>
+        <x:v>17456.4157782736</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>2058365.19743751</x:v>
+        <x:v>740628.55422916</x:v>
       </x:c>
       <x:c r="E6" s="16" t="n">
-        <x:v>5430.58885416645</x:v>
+        <x:v>14377.4346458331</x:v>
       </x:c>
       <x:c r="F6" s="16" t="n">
-        <x:v>23189.2932291664</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G6" s="16" t="n">
-        <x:v>10602.5471875004</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="16" t="n">
-        <x:v>20978.2617500003</x:v>
+        <x:v>13243.2672916666</x:v>
       </x:c>
       <x:c r="I6" s="16" t="n">
-        <x:v>8710.81750000035</x:v>
+        <x:v>20330.6641875</x:v>
       </x:c>
       <x:c r="J6" s="16" t="n">
-        <x:v>22895.3320833331</x:v>
+        <x:v>21228.794145833</x:v>
       </x:c>
       <x:c r="K6" s="16" t="n">
-        <x:v>29157.9806041671</x:v>
+        <x:v>39476.0752499992</x:v>
       </x:c>
       <x:c r="L6" s="16" t="n">
-        <x:v>2484.00737500004</x:v>
+        <x:v>8862.19262499979</x:v>
       </x:c>
       <x:c r="M6" s="16" t="n">
-        <x:v>44131.5190416682</x:v>
+        <x:v>27940.2619374999</x:v>
       </x:c>
       <x:c r="N6" s="16" t="n">
-        <x:v>23079.841541667</x:v>
+        <x:v>12659.8297916666</x:v>
       </x:c>
       <x:c r="O6" s="16" t="n">
-        <x:v>16931.2032500003</x:v>
+        <x:v>16338.6009999997</x:v>
       </x:c>
       <x:c r="P6" s="16" t="n">
-        <x:v>19490.0502708333</x:v>
+        <x:v>17439.677520833</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>44647.4513124997</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
+        <x:v>7845.57118749991</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1571,46 +1643,52 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>18415.9630138888</x:v>
+        <x:v>16780.7822291667</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>486217.747020832</x:v>
+        <x:v>926472.284020836</x:v>
       </x:c>
       <x:c r="E7" s="16" t="n">
-        <x:v>10647.4151458332</x:v>
+        <x:v>16270.0001458335</x:v>
       </x:c>
       <x:c r="F7" s="16" t="n">
-        <x:v>10957.4086250002</x:v>
+        <x:v>50600.5186666669</x:v>
       </x:c>
       <x:c r="G7" s="16" t="n">
-        <x:v>14027.6775416667</x:v>
+        <x:v>7307.15625</x:v>
       </x:c>
       <x:c r="H7" s="16" t="n">
-        <x:v>26042.8262291667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="16" t="n">
-        <x:v>8290.05774999998</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J7" s="16" t="n">
-        <x:v>21328.55025</x:v>
+        <x:v>30206.4599583335</x:v>
       </x:c>
       <x:c r="K7" s="16" t="n">
-        <x:v>24432.1608333334</x:v>
+        <x:v>16226.5609375006</x:v>
       </x:c>
       <x:c r="L7" s="16" t="n">
-        <x:v>22284.5385624999</x:v>
+        <x:v>4362.51477083331</x:v>
       </x:c>
       <x:c r="M7" s="16" t="n">
-        <x:v>35776.793708333</x:v>
+        <x:v>68068.8420208329</x:v>
       </x:c>
       <x:c r="N7" s="16" t="n">
-        <x:v>19284.5255208333</x:v>
+        <x:v>28209.4745833331</x:v>
       </x:c>
       <x:c r="O7" s="16" t="n">
-        <x:v>12450.1663541668</x:v>
+        <x:v>8854.99533333327</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
-        <x:v>15469.435645833</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>4824.4285416666</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1618,46 +1696,50 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>15991.3998663192</x:v>
+        <x:v>16375.3061730767</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>688135.53172916</x:v>
+        <x:v>2127003.40012501</x:v>
       </x:c>
       <x:c r="E8" s="16" t="n">
-        <x:v>14377.4346458331</x:v>
-      </x:c>
-      <x:c r="F8" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F8" s="16" t="s"/>
       <x:c r="G8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="16" t="n">
-        <x:v>13243.2672916666</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I8" s="16" t="n">
-        <x:v>20330.6641875</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="16" t="n">
-        <x:v>21228.794145833</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="16" t="n">
-        <x:v>39476.0752499992</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="16" t="n">
-        <x:v>8862.19262499979</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="16" t="n">
-        <x:v>27940.2619374999</x:v>
+        <x:v>15908.3491041665</x:v>
       </x:c>
       <x:c r="N8" s="16" t="n">
-        <x:v>12659.8297916666</x:v>
+        <x:v>19349.0714375</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
-        <x:v>16338.6009999997</x:v>
+        <x:v>56765.5715208326</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
-        <x:v>17439.677520833</x:v>
+        <x:v>41850.3029166665</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>69615.7247291652</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
+        <x:v>9389.96054166695</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1665,139 +1747,137 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>14068.7621904761</x:v>
+        <x:v>15796.9297916666</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>407211.613687497</x:v>
+        <x:v>486383.207937498</x:v>
       </x:c>
       <x:c r="E9" s="16" t="n">
-        <x:v>1185.32429166656</x:v>
+        <x:v>10647.4151458332</x:v>
       </x:c>
       <x:c r="F9" s="16" t="n">
-        <x:v>22181.4677291667</x:v>
+        <x:v>10957.4086250002</x:v>
       </x:c>
       <x:c r="G9" s="16" t="n">
-        <x:v>8548.76472916675</x:v>
+        <x:v>14027.6775416667</x:v>
       </x:c>
       <x:c r="H9" s="16" t="n">
-        <x:v>21539.5624374995</x:v>
+        <x:v>26042.8262291667</x:v>
       </x:c>
       <x:c r="I9" s="16" t="n">
-        <x:v>10773.6512291667</x:v>
+        <x:v>8290.05774999998</x:v>
       </x:c>
       <x:c r="J9" s="16" t="n">
-        <x:v>13417.7367916664</x:v>
+        <x:v>21328.55025</x:v>
       </x:c>
       <x:c r="K9" s="16" t="n">
-        <x:v>20834.8281250002</x:v>
-      </x:c>
-      <x:c r="L9" s="16" t="s"/>
-      <x:c r="M9" s="16" t="s"/>
-      <x:c r="N9" s="16" t="s"/>
-      <x:c r="O9" s="16" t="s"/>
-      <x:c r="P9" s="16" t="s"/>
+        <x:v>24432.1608333334</x:v>
+      </x:c>
+      <x:c r="L9" s="16" t="n">
+        <x:v>22284.5385624999</x:v>
+      </x:c>
+      <x:c r="M9" s="16" t="n">
+        <x:v>35776.793708333</x:v>
+      </x:c>
+      <x:c r="N9" s="16" t="n">
+        <x:v>19284.5255208333</x:v>
+      </x:c>
+      <x:c r="O9" s="16" t="n">
+        <x:v>12450.1663541668</x:v>
+      </x:c>
+      <x:c r="P9" s="16" t="n">
+        <x:v>15469.435645833</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>152.258833333326</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
+        <x:v>13.2020833333372</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
       <x:c r="B10" s="14" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>12170.2995435605</x:v>
+        <x:v>14068.7621904761</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>2047997.71485418</x:v>
+        <x:v>407211.613687497</x:v>
       </x:c>
       <x:c r="E10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F10" s="16" t="s"/>
+        <x:v>1185.32429166656</x:v>
+      </x:c>
+      <x:c r="F10" s="16" t="n">
+        <x:v>22181.4677291667</x:v>
+      </x:c>
       <x:c r="G10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>8548.76472916675</x:v>
       </x:c>
       <x:c r="H10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>21539.5624374995</x:v>
       </x:c>
       <x:c r="I10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>10773.6512291667</x:v>
       </x:c>
       <x:c r="J10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>13417.7367916664</x:v>
       </x:c>
       <x:c r="K10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L10" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M10" s="16" t="n">
-        <x:v>15908.3491041665</x:v>
-      </x:c>
-      <x:c r="N10" s="16" t="n">
-        <x:v>19349.0714375</x:v>
-      </x:c>
-      <x:c r="O10" s="16" t="n">
-        <x:v>56765.5715208326</x:v>
-      </x:c>
-      <x:c r="P10" s="16" t="n">
-        <x:v>41850.3029166665</x:v>
-      </x:c>
+        <x:v>20834.8281250002</x:v>
+      </x:c>
+      <x:c r="L10" s="16" t="s"/>
+      <x:c r="M10" s="16" t="s"/>
+      <x:c r="N10" s="16" t="s"/>
+      <x:c r="O10" s="16" t="s"/>
+      <x:c r="P10" s="16" t="s"/>
+      <x:c r="Q10" s="16" t="s"/>
+      <x:c r="R10" s="16" t="s"/>
     </x:row>
     <x:row r="11" spans="1:146">
       <x:c r="B11" s="14" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>11528.115142361</x:v>
+        <x:v>10858.8805291666</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>564048.483416665</x:v>
+        <x:v>741168.848541666</x:v>
       </x:c>
       <x:c r="E11" s="16" t="n">
-        <x:v>3054.63064583333</x:v>
+        <x:v>172.825916666654</x:v>
       </x:c>
       <x:c r="F11" s="16" t="n">
-        <x:v>5490.4359374998</x:v>
-      </x:c>
-      <x:c r="G11" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="16" t="n">
-        <x:v>21705.3897916664</x:v>
-      </x:c>
-      <x:c r="I11" s="16" t="n">
-        <x:v>193.535916666675</x:v>
-      </x:c>
-      <x:c r="J11" s="16" t="n">
-        <x:v>6649.88156250032</x:v>
-      </x:c>
-      <x:c r="K11" s="16" t="n">
-        <x:v>35324.3560416665</x:v>
-      </x:c>
-      <x:c r="L11" s="16" t="n">
-        <x:v>11180.523625</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G11" s="16" t="s"/>
+      <x:c r="H11" s="16" t="s"/>
+      <x:c r="I11" s="16" t="s"/>
+      <x:c r="J11" s="16" t="s"/>
+      <x:c r="K11" s="16" t="s"/>
+      <x:c r="L11" s="16" t="s"/>
       <x:c r="M11" s="16" t="n">
-        <x:v>5034.18933333328</x:v>
+        <x:v>31860.2548333334</x:v>
       </x:c>
       <x:c r="N11" s="16" t="n">
-        <x:v>8019.2699999999</x:v>
+        <x:v>16625.1507499997</x:v>
       </x:c>
       <x:c r="O11" s="16" t="n">
-        <x:v>25159.6002708334</x:v>
-      </x:c>
-      <x:c r="P11" s="16" t="n">
-        <x:v>16525.568583333</x:v>
-      </x:c>
+        <x:v>5636.17114583333</x:v>
+      </x:c>
+      <x:c r="P11" s="16" t="s"/>
+      <x:c r="Q11" s="16" t="s"/>
+      <x:c r="R11" s="16" t="s"/>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>11001.8473888888</x:v>
+        <x:v>9824.16889880946</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>348058.326916666</x:v>
+        <x:v>353574.522833332</x:v>
       </x:c>
       <x:c r="E12" s="16" t="n">
         <x:v>2447.64254166666</x:v>
@@ -1834,6 +1914,12 @@
       </x:c>
       <x:c r="P12" s="16" t="n">
         <x:v>11485.0537499999</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>5516.19591666659</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
@@ -1841,160 +1927,190 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>10858.8805291666</x:v>
+        <x:v>8756.73747222214</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>741168.848541666</x:v>
+        <x:v>318071.171749999</x:v>
       </x:c>
       <x:c r="E13" s="16" t="n">
-        <x:v>172.825916666654</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G13" s="16" t="s"/>
-      <x:c r="H13" s="16" t="s"/>
-      <x:c r="I13" s="16" t="s"/>
-      <x:c r="J13" s="16" t="s"/>
-      <x:c r="K13" s="16" t="s"/>
-      <x:c r="L13" s="16" t="s"/>
+      <x:c r="G13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K13" s="16" t="n">
+        <x:v>9471.14770833327</x:v>
+      </x:c>
+      <x:c r="L13" s="16" t="n">
+        <x:v>18201.9894166666</x:v>
+      </x:c>
       <x:c r="M13" s="16" t="n">
-        <x:v>31860.2548333334</x:v>
+        <x:v>8841.27654166665</x:v>
       </x:c>
       <x:c r="N13" s="16" t="n">
-        <x:v>16625.1507499997</x:v>
+        <x:v>9642.40462500002</x:v>
       </x:c>
       <x:c r="O13" s="16" t="n">
-        <x:v>5636.17114583333</x:v>
-      </x:c>
-      <x:c r="P13" s="16" t="s"/>
-      <x:c r="AC13" s="17" t="s"/>
+        <x:v>44510.4771249994</x:v>
+      </x:c>
+      <x:c r="P13" s="16" t="n">
+        <x:v>14413.5542499998</x:v>
+      </x:c>
+      <x:c r="Q13" s="16" t="s"/>
+      <x:c r="R13" s="16" t="s"/>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="15" t="n">
-        <x:v>8756.73747222214</x:v>
+        <x:v>8206.25248958332</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>318071.171749999</x:v>
+        <x:v>153007.684041667</x:v>
       </x:c>
       <x:c r="E14" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>5582.6532083333</x:v>
       </x:c>
       <x:c r="F14" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1540.28725000001</x:v>
       </x:c>
       <x:c r="G14" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4914.49812500001</x:v>
       </x:c>
       <x:c r="H14" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>16737.8054583334</x:v>
       </x:c>
       <x:c r="I14" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>8272.39843749991</x:v>
       </x:c>
       <x:c r="J14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K14" s="16" t="n">
-        <x:v>9471.14770833327</x:v>
-      </x:c>
-      <x:c r="L14" s="16" t="n">
-        <x:v>18201.9894166666</x:v>
-      </x:c>
-      <x:c r="M14" s="16" t="n">
-        <x:v>8841.27654166665</x:v>
-      </x:c>
-      <x:c r="N14" s="16" t="n">
-        <x:v>9642.40462500002</x:v>
-      </x:c>
-      <x:c r="O14" s="16" t="n">
-        <x:v>44510.4771249994</x:v>
-      </x:c>
-      <x:c r="P14" s="16" t="n">
-        <x:v>14413.5542499998</x:v>
-      </x:c>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+        <x:v>12189.8724583333</x:v>
+      </x:c>
+      <x:c r="K14" s="16" t="s"/>
+      <x:c r="L14" s="16" t="s"/>
+      <x:c r="M14" s="16" t="s"/>
+      <x:c r="N14" s="16" t="s"/>
+      <x:c r="O14" s="16" t="s"/>
+      <x:c r="P14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="s"/>
+      <x:c r="R14" s="16" t="s"/>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="15" t="n">
-        <x:v>8206.25248958332</x:v>
+        <x:v>8001.30678787869</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>153007.684041667</x:v>
-      </x:c>
-      <x:c r="E15" s="16" t="n">
-        <x:v>5582.6532083333</x:v>
-      </x:c>
-      <x:c r="F15" s="16" t="n">
-        <x:v>1540.28725000001</x:v>
-      </x:c>
-      <x:c r="G15" s="16" t="n">
-        <x:v>4914.49812500001</x:v>
-      </x:c>
+        <x:v>568390.055104167</x:v>
+      </x:c>
+      <x:c r="E15" s="16" t="s"/>
+      <x:c r="F15" s="16" t="s"/>
+      <x:c r="G15" s="16" t="s"/>
       <x:c r="H15" s="16" t="n">
-        <x:v>16737.8054583334</x:v>
+        <x:v>3707.99275000009</x:v>
       </x:c>
       <x:c r="I15" s="16" t="n">
-        <x:v>8272.39843749991</x:v>
+        <x:v>129.739500000025</x:v>
       </x:c>
       <x:c r="J15" s="16" t="n">
-        <x:v>12189.8724583333</x:v>
-      </x:c>
-      <x:c r="K15" s="16" t="s"/>
-      <x:c r="L15" s="16" t="s"/>
-      <x:c r="M15" s="16" t="s"/>
-      <x:c r="N15" s="16" t="s"/>
-      <x:c r="O15" s="16" t="s"/>
-      <x:c r="P15" s="16" t="s"/>
+        <x:v>11119.8068124998</x:v>
+      </x:c>
+      <x:c r="K15" s="16" t="n">
+        <x:v>15573.0120416668</x:v>
+      </x:c>
+      <x:c r="L15" s="16" t="n">
+        <x:v>8333.99929166655</x:v>
+      </x:c>
+      <x:c r="M15" s="16" t="n">
+        <x:v>11041.282145833</x:v>
+      </x:c>
+      <x:c r="N15" s="16" t="n">
+        <x:v>11964.0629999998</x:v>
+      </x:c>
+      <x:c r="O15" s="16" t="n">
+        <x:v>3788.13383333292</x:v>
+      </x:c>
+      <x:c r="P15" s="16" t="n">
+        <x:v>7470.23604166671</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>5397.8790833333</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
+        <x:v>9488.23016666656</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
       <x:c r="B16" s="14" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>8125.36282407397</x:v>
+        <x:v>7710.04669047609</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>553503.945854167</x:v>
-      </x:c>
-      <x:c r="E16" s="16" t="s"/>
-      <x:c r="F16" s="16" t="s"/>
-      <x:c r="G16" s="16" t="s"/>
+        <x:v>588201.107854165</x:v>
+      </x:c>
+      <x:c r="E16" s="16" t="n">
+        <x:v>4082.50137499999</x:v>
+      </x:c>
+      <x:c r="F16" s="16" t="n">
+        <x:v>2458.28062500007</x:v>
+      </x:c>
+      <x:c r="G16" s="16" t="n">
+        <x:v>8024.59597916651</x:v>
+      </x:c>
       <x:c r="H16" s="16" t="n">
-        <x:v>3707.99275000009</x:v>
+        <x:v>12423.64225</x:v>
       </x:c>
       <x:c r="I16" s="16" t="n">
-        <x:v>129.739500000025</x:v>
+        <x:v>4763.94139583322</x:v>
       </x:c>
       <x:c r="J16" s="16" t="n">
-        <x:v>11119.8068124998</x:v>
+        <x:v>2492.76704166672</x:v>
       </x:c>
       <x:c r="K16" s="16" t="n">
-        <x:v>15573.0120416668</x:v>
+        <x:v>3238.77570833341</x:v>
       </x:c>
       <x:c r="L16" s="16" t="n">
-        <x:v>8333.99929166655</x:v>
+        <x:v>531.786833333375</x:v>
       </x:c>
       <x:c r="M16" s="16" t="n">
-        <x:v>11041.282145833</x:v>
+        <x:v>7183.51793749986</x:v>
       </x:c>
       <x:c r="N16" s="16" t="n">
-        <x:v>11964.0629999998</x:v>
+        <x:v>25627.5305624995</x:v>
       </x:c>
       <x:c r="O16" s="16" t="n">
-        <x:v>3788.13383333292</x:v>
+        <x:v>11408.7064166664</x:v>
       </x:c>
       <x:c r="P16" s="16" t="n">
-        <x:v>7470.23604166671</x:v>
+        <x:v>9463.72497916664</x:v>
+      </x:c>
+      <x:c r="Q16" s="16" t="n">
+        <x:v>16240.8825624996</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
@@ -2002,46 +2118,52 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>7641.64759201381</x:v>
+        <x:v>5760.98786904762</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>571960.225291665</x:v>
+        <x:v>1095552.8443125</x:v>
       </x:c>
       <x:c r="E17" s="16" t="n">
-        <x:v>4082.50137499999</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="16" t="n">
-        <x:v>2458.28062500007</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G17" s="16" t="n">
-        <x:v>8024.59597916651</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="16" t="n">
-        <x:v>12423.64225</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I17" s="16" t="n">
-        <x:v>4763.94139583322</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J17" s="16" t="n">
-        <x:v>2492.76704166672</x:v>
+        <x:v>3488.50370833336</x:v>
       </x:c>
       <x:c r="K17" s="16" t="n">
-        <x:v>3238.77570833341</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L17" s="16" t="n">
-        <x:v>531.786833333375</x:v>
+        <x:v>5729.2270833333</x:v>
       </x:c>
       <x:c r="M17" s="16" t="n">
-        <x:v>7183.51793749986</x:v>
+        <x:v>8694.07362500008</x:v>
       </x:c>
       <x:c r="N17" s="16" t="n">
-        <x:v>25627.5305624995</x:v>
+        <x:v>16774.7425833335</x:v>
       </x:c>
       <x:c r="O17" s="16" t="n">
-        <x:v>11408.7064166664</x:v>
+        <x:v>13674.6948541664</x:v>
       </x:c>
       <x:c r="P17" s="16" t="n">
-        <x:v>9463.72497916664</x:v>
+        <x:v>23200.2720833335</x:v>
+      </x:c>
+      <x:c r="Q17" s="16" t="n">
+        <x:v>9092.31622916646</x:v>
+      </x:c>
+      <x:c r="R17" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:146">
@@ -2049,10 +2171,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>6266.49251041665</x:v>
+        <x:v>5371.49187797618</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>648308.123583331</x:v>
+        <x:v>648311.099749998</x:v>
       </x:c>
       <x:c r="E18" s="16" t="n">
         <x:v>1052.99937500001</x:v>
@@ -2089,6 +2211,12 @@
       </x:c>
       <x:c r="P18" s="16" t="n">
         <x:v>4203.17474999989</x:v>
+      </x:c>
+      <x:c r="Q18" s="16" t="n">
+        <x:v>2.9761666667182</x:v>
+      </x:c>
+      <x:c r="R18" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:146">
@@ -2096,46 +2224,52 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="15" t="n">
-        <x:v>5963.45949479168</x:v>
+        <x:v>5209.81940029762</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>1086460.52808333</x:v>
+        <x:v>373979.114833333</x:v>
       </x:c>
       <x:c r="E19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>18195.2367499999</x:v>
       </x:c>
       <x:c r="G19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>16756.88925</x:v>
       </x:c>
       <x:c r="I19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>21.0323333333363</x:v>
       </x:c>
       <x:c r="J19" s="16" t="n">
-        <x:v>3488.50370833336</x:v>
+        <x:v>3629.60462499992</x:v>
       </x:c>
       <x:c r="K19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>90.446333333326</x:v>
       </x:c>
       <x:c r="L19" s="16" t="n">
-        <x:v>5729.2270833333</x:v>
+        <x:v>4457.35616666684</x:v>
       </x:c>
       <x:c r="M19" s="16" t="n">
-        <x:v>8694.07362500008</x:v>
+        <x:v>7217.63491666666</x:v>
       </x:c>
       <x:c r="N19" s="16" t="n">
-        <x:v>16774.7425833335</x:v>
+        <x:v>6235.86475000001</x:v>
       </x:c>
       <x:c r="O19" s="16" t="n">
-        <x:v>13674.6948541664</x:v>
+        <x:v>10107.1298541667</x:v>
       </x:c>
       <x:c r="P19" s="16" t="n">
-        <x:v>23200.2720833335</x:v>
+        <x:v>874.944499999983</x:v>
+      </x:c>
+      <x:c r="Q19" s="16" t="n">
+        <x:v>5351.33212500002</x:v>
+      </x:c>
+      <x:c r="R19" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:146">
@@ -2143,46 +2277,48 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="15" t="n">
-        <x:v>5632.17828993056</x:v>
+        <x:v>5068.04110763887</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>368627.782708333</x:v>
-      </x:c>
-      <x:c r="E20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F20" s="16" t="n">
-        <x:v>18195.2367499999</x:v>
-      </x:c>
+        <x:v>467151.260083332</x:v>
+      </x:c>
+      <x:c r="E20" s="16" t="s"/>
+      <x:c r="F20" s="16" t="s"/>
       <x:c r="G20" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="16" t="n">
-        <x:v>16756.88925</x:v>
+        <x:v>8140.42166666646</x:v>
       </x:c>
       <x:c r="I20" s="16" t="n">
-        <x:v>21.0323333333363</x:v>
+        <x:v>3003.45920833334</x:v>
       </x:c>
       <x:c r="J20" s="16" t="n">
-        <x:v>3629.60462499992</x:v>
+        <x:v>2549.47808333335</x:v>
       </x:c>
       <x:c r="K20" s="16" t="n">
-        <x:v>90.446333333326</x:v>
+        <x:v>5546.49479166657</x:v>
       </x:c>
       <x:c r="L20" s="16" t="n">
-        <x:v>4457.35616666684</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M20" s="16" t="n">
-        <x:v>7217.63491666666</x:v>
+        <x:v>12320.7444166669</x:v>
       </x:c>
       <x:c r="N20" s="16" t="n">
-        <x:v>6235.86475000001</x:v>
+        <x:v>7072.87279166665</x:v>
       </x:c>
       <x:c r="O20" s="16" t="n">
-        <x:v>10107.1298541667</x:v>
+        <x:v>7079.83416666684</x:v>
       </x:c>
       <x:c r="P20" s="16" t="n">
-        <x:v>874.944499999983</x:v>
+        <x:v>10036.009458333</x:v>
+      </x:c>
+      <x:c r="Q20" s="16" t="n">
+        <x:v>3924.33887500002</x:v>
+      </x:c>
+      <x:c r="R20" s="16" t="n">
+        <x:v>1142.83983333327</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:146">
@@ -2190,42 +2326,52 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="15" t="n">
-        <x:v>5574.93145833331</x:v>
+        <x:v>3487.40447767856</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>462084.081374999</x:v>
-      </x:c>
-      <x:c r="E21" s="16" t="s"/>
-      <x:c r="F21" s="16" t="s"/>
+        <x:v>663023.275520832</x:v>
+      </x:c>
+      <x:c r="E21" s="16" t="n">
+        <x:v>198.175666666706</x:v>
+      </x:c>
+      <x:c r="F21" s="16" t="n">
+        <x:v>8195.91191666666</x:v>
+      </x:c>
       <x:c r="G21" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="16" t="n">
-        <x:v>8140.42166666646</x:v>
+        <x:v>2083.21868749976</x:v>
       </x:c>
       <x:c r="I21" s="16" t="n">
-        <x:v>3003.45920833334</x:v>
+        <x:v>1582.7150833332</x:v>
       </x:c>
       <x:c r="J21" s="16" t="n">
-        <x:v>2549.47808333335</x:v>
+        <x:v>7636.12985416676</x:v>
       </x:c>
       <x:c r="K21" s="16" t="n">
-        <x:v>5546.49479166657</x:v>
+        <x:v>3457.84191666683</x:v>
       </x:c>
       <x:c r="L21" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="16" t="n">
-        <x:v>12320.7444166669</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N21" s="16" t="n">
-        <x:v>7072.87279166665</x:v>
+        <x:v>83.0751666667638</x:v>
       </x:c>
       <x:c r="O21" s="16" t="n">
-        <x:v>7079.83416666684</x:v>
+        <x:v>4452.90820833307</x:v>
       </x:c>
       <x:c r="P21" s="16" t="n">
-        <x:v>10036.009458333</x:v>
+        <x:v>15824.0467916667</x:v>
+      </x:c>
+      <x:c r="Q21" s="16" t="n">
+        <x:v>5309.63939583336</x:v>
+      </x:c>
+      <x:c r="R21" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:146">
@@ -2233,46 +2379,48 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="15" t="n">
-        <x:v>3763.90281770834</x:v>
+        <x:v>3273.63087152776</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>657786.525708333</x:v>
-      </x:c>
-      <x:c r="E22" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F22" s="16" t="n">
-        <x:v>5876.22549999994</x:v>
-      </x:c>
+        <x:v>290773.065729166</x:v>
+      </x:c>
+      <x:c r="E22" s="16" t="s"/>
+      <x:c r="F22" s="16" t="s"/>
       <x:c r="G22" s="16" t="n">
-        <x:v>4296.04558333347</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="16" t="n">
-        <x:v>503.391583333374</x:v>
+        <x:v>79.0559999999823</x:v>
       </x:c>
       <x:c r="I22" s="16" t="n">
-        <x:v>2511.8361666667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J22" s="16" t="n">
-        <x:v>133.11950000003</x:v>
+        <x:v>46.0653333333321</x:v>
       </x:c>
       <x:c r="K22" s="16" t="n">
-        <x:v>16447.7642083335</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L22" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="16" t="n">
-        <x:v>3.86450000002515</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N22" s="16" t="n">
-        <x:v>11735.9361041664</x:v>
+        <x:v>7536.19799999997</x:v>
       </x:c>
       <x:c r="O22" s="16" t="n">
-        <x:v>3658.65066666668</x:v>
+        <x:v>12982.8850416665</x:v>
       </x:c>
       <x:c r="P22" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>8319.27677083336</x:v>
+      </x:c>
+      <x:c r="Q22" s="16" t="n">
+        <x:v>5562.87562499999</x:v>
+      </x:c>
+      <x:c r="R22" s="16" t="n">
+        <x:v>4757.21368749999</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:146">
@@ -2280,46 +2428,46 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="15" t="n">
-        <x:v>3626.16860763887</x:v>
+        <x:v>3080.16089583334</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>657713.636124999</x:v>
+        <x:v>928533.966833334</x:v>
       </x:c>
       <x:c r="E23" s="16" t="n">
-        <x:v>198.175666666706</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="16" t="n">
-        <x:v>8195.91191666666</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G23" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="16" t="n">
-        <x:v>2083.21868749976</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I23" s="16" t="n">
-        <x:v>1582.7150833332</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J23" s="16" t="n">
-        <x:v>7636.12985416676</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K23" s="16" t="n">
-        <x:v>3457.84191666683</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L23" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="M23" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N23" s="16" t="n">
-        <x:v>83.0751666667638</x:v>
-      </x:c>
-      <x:c r="O23" s="16" t="n">
-        <x:v>4452.90820833307</x:v>
-      </x:c>
+      <x:c r="M23" s="16" t="s"/>
+      <x:c r="N23" s="16" t="s"/>
+      <x:c r="O23" s="16" t="s"/>
       <x:c r="P23" s="16" t="n">
-        <x:v>15824.0467916667</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q23" s="16" t="n">
+        <x:v>32707.9722916667</x:v>
+      </x:c>
+      <x:c r="R23" s="16" t="n">
+        <x:v>1173.7975625</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:146">
@@ -2327,22 +2475,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="15" t="n">
-        <x:v>110.223333333345</x:v>
+        <x:v>1037.83618055555</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>413343.145916668</x:v>
-      </x:c>
-      <x:c r="E24" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F24" s="16" t="n">
-        <x:v>596.062916666677</x:v>
-      </x:c>
+        <x:v>363033.157562499</x:v>
+      </x:c>
+      <x:c r="E24" s="16" t="s"/>
+      <x:c r="F24" s="16" t="s"/>
       <x:c r="G24" s="16" t="n">
-        <x:v>25.0835000000079</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="16" t="n">
-        <x:v>146.01025000005</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I24" s="16" t="n">
         <x:v>0</x:v>
@@ -2351,36 +2495,68 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K24" s="16" t="n">
-        <x:v>4.40666666667676</x:v>
-      </x:c>
-      <x:c r="L24" s="16" t="s"/>
-      <x:c r="M24" s="16" t="s"/>
-      <x:c r="N24" s="16" t="s"/>
-      <x:c r="O24" s="16" t="s"/>
-      <x:c r="P24" s="16" t="s"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M24" s="16" t="n">
+        <x:v>117.293166666641</x:v>
+      </x:c>
+      <x:c r="N24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P24" s="16" t="n">
+        <x:v>759.932166666666</x:v>
+      </x:c>
+      <x:c r="Q24" s="16" t="n">
+        <x:v>387.424999999988</x:v>
+      </x:c>
+      <x:c r="R24" s="16" t="n">
+        <x:v>11189.3838333333</x:v>
+      </x:c>
     </x:row>
     <x:row r="25" spans="1:146">
       <x:c r="B25" s="14" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>110.223333333345</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>10430.8674583333</x:v>
-      </x:c>
-      <x:c r="E25" s="16" t="s"/>
-      <x:c r="F25" s="16" t="s"/>
-      <x:c r="G25" s="16" t="s"/>
-      <x:c r="H25" s="16" t="s"/>
-      <x:c r="I25" s="16" t="s"/>
-      <x:c r="J25" s="16" t="s"/>
-      <x:c r="K25" s="16" t="s"/>
+        <x:v>413343.145916668</x:v>
+      </x:c>
+      <x:c r="E25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F25" s="16" t="n">
+        <x:v>596.062916666677</x:v>
+      </x:c>
+      <x:c r="G25" s="16" t="n">
+        <x:v>25.0835000000079</x:v>
+      </x:c>
+      <x:c r="H25" s="16" t="n">
+        <x:v>146.01025000005</x:v>
+      </x:c>
+      <x:c r="I25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K25" s="16" t="n">
+        <x:v>4.40666666667676</x:v>
+      </x:c>
       <x:c r="L25" s="16" t="s"/>
       <x:c r="M25" s="16" t="s"/>
       <x:c r="N25" s="16" t="s"/>
       <x:c r="O25" s="16" t="s"/>
       <x:c r="P25" s="16" t="s"/>
+      <x:c r="Q25" s="16" t="s"/>
+      <x:c r="R25" s="16" t="s"/>
     </x:row>
     <x:row r="26" spans="1:146">
       <x:c r="B26" s="14" t="s">
@@ -2390,7 +2566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>1005.59533333333</x:v>
+        <x:v>10430.8674583333</x:v>
       </x:c>
       <x:c r="E26" s="16" t="s"/>
       <x:c r="F26" s="16" t="s"/>
@@ -2404,6 +2580,8 @@
       <x:c r="N26" s="16" t="s"/>
       <x:c r="O26" s="16" t="s"/>
       <x:c r="P26" s="16" t="s"/>
+      <x:c r="Q26" s="16" t="s"/>
+      <x:c r="R26" s="16" t="s"/>
     </x:row>
     <x:row r="27" spans="1:146">
       <x:c r="B27" s="14" t="s">
@@ -2413,7 +2591,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>123994.024416667</x:v>
+        <x:v>1005.59533333333</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
@@ -2427,6 +2605,8 @@
       <x:c r="N27" s="16" t="s"/>
       <x:c r="O27" s="16" t="s"/>
       <x:c r="P27" s="16" t="s"/>
+      <x:c r="Q27" s="16" t="s"/>
+      <x:c r="R27" s="16" t="s"/>
     </x:row>
     <x:row r="28" spans="1:146">
       <x:c r="B28" s="14" t="s">
@@ -2436,7 +2616,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>150001.378083333</x:v>
+        <x:v>123994.024416667</x:v>
       </x:c>
       <x:c r="E28" s="16" t="s"/>
       <x:c r="F28" s="16" t="s"/>
@@ -2450,6 +2630,8 @@
       <x:c r="N28" s="16" t="s"/>
       <x:c r="O28" s="16" t="s"/>
       <x:c r="P28" s="16" t="s"/>
+      <x:c r="Q28" s="16" t="s"/>
+      <x:c r="R28" s="16" t="s"/>
     </x:row>
     <x:row r="29" spans="1:146">
       <x:c r="B29" s="14" t="s">
@@ -2459,7 +2641,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>14638.7826666667</x:v>
+        <x:v>150001.378083333</x:v>
       </x:c>
       <x:c r="E29" s="16" t="s"/>
       <x:c r="F29" s="16" t="s"/>
@@ -2473,6 +2655,8 @@
       <x:c r="N29" s="16" t="s"/>
       <x:c r="O29" s="16" t="s"/>
       <x:c r="P29" s="16" t="s"/>
+      <x:c r="Q29" s="16" t="s"/>
+      <x:c r="R29" s="16" t="s"/>
     </x:row>
     <x:row r="30" spans="1:146">
       <x:c r="B30" s="14" t="s">
@@ -2482,7 +2666,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>58964.5882500001</x:v>
+        <x:v>14638.7826666667</x:v>
       </x:c>
       <x:c r="E30" s="16" t="s"/>
       <x:c r="F30" s="16" t="s"/>
@@ -2496,6 +2680,8 @@
       <x:c r="N30" s="16" t="s"/>
       <x:c r="O30" s="16" t="s"/>
       <x:c r="P30" s="16" t="s"/>
+      <x:c r="Q30" s="16" t="s"/>
+      <x:c r="R30" s="16" t="s"/>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
@@ -2505,7 +2691,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>1858.0505</x:v>
+        <x:v>58964.5882500001</x:v>
       </x:c>
       <x:c r="E31" s="16" t="s"/>
       <x:c r="F31" s="16" t="s"/>
@@ -2519,6 +2705,8 @@
       <x:c r="N31" s="16" t="s"/>
       <x:c r="O31" s="16" t="s"/>
       <x:c r="P31" s="16" t="s"/>
+      <x:c r="Q31" s="16" t="s"/>
+      <x:c r="R31" s="16" t="s"/>
     </x:row>
     <x:row r="32" spans="1:146">
       <x:c r="B32" s="14" t="s">
@@ -2528,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>201541.569416667</x:v>
+        <x:v>1858.0505</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s"/>
       <x:c r="F32" s="16" t="s"/>
@@ -2542,6 +2730,8 @@
       <x:c r="N32" s="16" t="s"/>
       <x:c r="O32" s="16" t="s"/>
       <x:c r="P32" s="16" t="s"/>
+      <x:c r="Q32" s="16" t="s"/>
+      <x:c r="R32" s="16" t="s"/>
     </x:row>
     <x:row r="33" spans="1:146">
       <x:c r="B33" s="14" t="s">
@@ -2551,7 +2741,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>71112.6192916666</x:v>
+        <x:v>201541.569416667</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s"/>
       <x:c r="F33" s="16" t="s"/>
@@ -2565,6 +2755,8 @@
       <x:c r="N33" s="16" t="s"/>
       <x:c r="O33" s="16" t="s"/>
       <x:c r="P33" s="16" t="s"/>
+      <x:c r="Q33" s="16" t="s"/>
+      <x:c r="R33" s="16" t="s"/>
     </x:row>
     <x:row r="34" spans="1:146">
       <x:c r="B34" s="14" t="s">
@@ -2574,7 +2766,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>80445.2842083332</x:v>
+        <x:v>71112.6192916666</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s"/>
       <x:c r="F34" s="16" t="s"/>
@@ -2588,6 +2780,8 @@
       <x:c r="N34" s="16" t="s"/>
       <x:c r="O34" s="16" t="s"/>
       <x:c r="P34" s="16" t="s"/>
+      <x:c r="Q34" s="16" t="s"/>
+      <x:c r="R34" s="16" t="s"/>
     </x:row>
     <x:row r="35" spans="1:146">
       <x:c r="B35" s="14" t="s">
@@ -2597,38 +2791,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>894652.196979168</x:v>
-      </x:c>
-      <x:c r="E35" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F35" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G35" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H35" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I35" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J35" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K35" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L35" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>80445.2842083332</x:v>
+      </x:c>
+      <x:c r="E35" s="16" t="s"/>
+      <x:c r="F35" s="16" t="s"/>
+      <x:c r="G35" s="16" t="s"/>
+      <x:c r="H35" s="16" t="s"/>
+      <x:c r="I35" s="16" t="s"/>
+      <x:c r="J35" s="16" t="s"/>
+      <x:c r="K35" s="16" t="s"/>
+      <x:c r="L35" s="16" t="s"/>
       <x:c r="M35" s="16" t="s"/>
       <x:c r="N35" s="16" t="s"/>
       <x:c r="O35" s="16" t="s"/>
-      <x:c r="P35" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P35" s="16" t="s"/>
+      <x:c r="Q35" s="16" t="s"/>
+      <x:c r="R35" s="16" t="s"/>
     </x:row>
     <x:row r="36" spans="1:146">
       <x:c r="B36" s="14" t="s">
@@ -2652,6 +2830,8 @@
       <x:c r="N36" s="16" t="s"/>
       <x:c r="O36" s="16" t="s"/>
       <x:c r="P36" s="16" t="s"/>
+      <x:c r="Q36" s="16" t="s"/>
+      <x:c r="R36" s="16" t="s"/>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -2675,6 +2855,8 @@
       <x:c r="N37" s="16" t="s"/>
       <x:c r="O37" s="16" t="s"/>
       <x:c r="P37" s="16" t="s"/>
+      <x:c r="Q37" s="16" t="s"/>
+      <x:c r="R37" s="16" t="s"/>
     </x:row>
     <x:row r="38" spans="1:146">
       <x:c r="B38" s="14" t="s">
@@ -2698,6 +2880,8 @@
       <x:c r="N38" s="16" t="s"/>
       <x:c r="O38" s="16" t="s"/>
       <x:c r="P38" s="16" t="s"/>
+      <x:c r="Q38" s="16" t="s"/>
+      <x:c r="R38" s="16" t="s"/>
     </x:row>
     <x:row r="39" spans="1:146">
       <x:c r="B39" s="14" t="s">
@@ -2721,6 +2905,8 @@
       <x:c r="N39" s="16" t="s"/>
       <x:c r="O39" s="16" t="s"/>
       <x:c r="P39" s="16" t="s"/>
+      <x:c r="Q39" s="16" t="s"/>
+      <x:c r="R39" s="16" t="s"/>
     </x:row>
     <x:row r="40" spans="1:146">
       <x:c r="B40" s="14" t="s">
@@ -2744,6 +2930,8 @@
       <x:c r="N40" s="16" t="s"/>
       <x:c r="O40" s="16" t="s"/>
       <x:c r="P40" s="16" t="s"/>
+      <x:c r="Q40" s="16" t="s"/>
+      <x:c r="R40" s="16" t="s"/>
     </x:row>
     <x:row r="41" spans="1:146">
       <x:c r="B41" s="14" t="s">
@@ -2767,6 +2955,8 @@
       <x:c r="N41" s="16" t="s"/>
       <x:c r="O41" s="16" t="s"/>
       <x:c r="P41" s="16" t="s"/>
+      <x:c r="Q41" s="16" t="s"/>
+      <x:c r="R41" s="16" t="s"/>
     </x:row>
     <x:row r="42" spans="1:146">
       <x:c r="B42" s="14" t="s">
@@ -2790,6 +2980,8 @@
       <x:c r="N42" s="16" t="s"/>
       <x:c r="O42" s="16" t="s"/>
       <x:c r="P42" s="16" t="s"/>
+      <x:c r="Q42" s="16" t="s"/>
+      <x:c r="R42" s="16" t="s"/>
     </x:row>
     <x:row r="43" spans="1:146">
       <x:c r="B43" s="14" t="s">
@@ -2813,6 +3005,8 @@
       <x:c r="N43" s="16" t="s"/>
       <x:c r="O43" s="16" t="s"/>
       <x:c r="P43" s="16" t="s"/>
+      <x:c r="Q43" s="16" t="s"/>
+      <x:c r="R43" s="16" t="s"/>
     </x:row>
     <x:row r="44" spans="1:146">
       <x:c r="B44" s="14" t="s">
@@ -2838,6 +3032,8 @@
       <x:c r="N44" s="16" t="s"/>
       <x:c r="O44" s="16" t="s"/>
       <x:c r="P44" s="16" t="s"/>
+      <x:c r="Q44" s="16" t="s"/>
+      <x:c r="R44" s="16" t="s"/>
     </x:row>
     <x:row r="45" spans="1:146">
       <x:c r="B45" s="14" t="s">
@@ -2861,6 +3057,8 @@
       <x:c r="N45" s="16" t="s"/>
       <x:c r="O45" s="16" t="s"/>
       <x:c r="P45" s="16" t="s"/>
+      <x:c r="Q45" s="16" t="s"/>
+      <x:c r="R45" s="16" t="s"/>
     </x:row>
     <x:row r="46" spans="1:146">
       <x:c r="B46" s="14" t="s">
@@ -2884,6 +3082,8 @@
       <x:c r="N46" s="16" t="s"/>
       <x:c r="O46" s="16" t="s"/>
       <x:c r="P46" s="16" t="s"/>
+      <x:c r="Q46" s="16" t="s"/>
+      <x:c r="R46" s="16" t="s"/>
     </x:row>
     <x:row r="47" spans="1:146">
       <x:c r="B47" s="14" t="s">
@@ -2907,6 +3107,8 @@
       <x:c r="N47" s="16" t="s"/>
       <x:c r="O47" s="16" t="s"/>
       <x:c r="P47" s="16" t="s"/>
+      <x:c r="Q47" s="16" t="s"/>
+      <x:c r="R47" s="16" t="s"/>
     </x:row>
     <x:row r="48" spans="1:146">
       <x:c r="B48" s="14" t="s">
@@ -2930,6 +3132,8 @@
       <x:c r="N48" s="16" t="s"/>
       <x:c r="O48" s="16" t="s"/>
       <x:c r="P48" s="16" t="s"/>
+      <x:c r="Q48" s="16" t="s"/>
+      <x:c r="R48" s="16" t="s"/>
     </x:row>
     <x:row r="49" spans="1:146">
       <x:c r="B49" s="14" t="s">
@@ -2953,6 +3157,8 @@
       <x:c r="N49" s="16" t="s"/>
       <x:c r="O49" s="16" t="s"/>
       <x:c r="P49" s="16" t="s"/>
+      <x:c r="Q49" s="16" t="s"/>
+      <x:c r="R49" s="16" t="s"/>
     </x:row>
     <x:row r="50" spans="1:146">
       <x:c r="B50" s="14" t="s">
@@ -2976,6 +3182,8 @@
       <x:c r="N50" s="16" t="s"/>
       <x:c r="O50" s="16" t="s"/>
       <x:c r="P50" s="16" t="s"/>
+      <x:c r="Q50" s="16" t="s"/>
+      <x:c r="R50" s="16" t="s"/>
     </x:row>
     <x:row r="51" spans="1:146">
       <x:c r="B51" s="14" t="s">
@@ -3003,6 +3211,8 @@
       <x:c r="N51" s="16" t="s"/>
       <x:c r="O51" s="16" t="s"/>
       <x:c r="P51" s="16" t="s"/>
+      <x:c r="Q51" s="16" t="s"/>
+      <x:c r="R51" s="16" t="s"/>
     </x:row>
     <x:row r="52" spans="1:146">
       <x:c r="B52" s="14" t="s">
@@ -3026,6 +3236,8 @@
       <x:c r="N52" s="16" t="s"/>
       <x:c r="O52" s="16" t="s"/>
       <x:c r="P52" s="16" t="s"/>
+      <x:c r="Q52" s="16" t="s"/>
+      <x:c r="R52" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:dataConsolidate/>
@@ -3060,7 +3272,8 @@
     <x:col min="13" max="13" width="15.980625" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="18.550625" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="17.270625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="15.980625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -3116,7 +3329,7 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
         <x:v>55</x:v>
@@ -3158,210 +3371,210 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E3" s="19" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F3" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G3" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L3" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M3" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N3" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E4" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F4" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G4" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H4" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I4" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J4" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K4" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F4" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G4" s="19" t="s">
+      <x:c r="L4" s="19" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="H4" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I4" s="19" t="s">
+      <x:c r="M4" s="19" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="J4" s="19" t="s">
+      <x:c r="N4" s="19" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="K4" s="19" t="s">
+      <x:c r="O4" s="19" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="L4" s="19" t="s">
+      <x:c r="P4" s="19" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="M4" s="19" t="s">
+      <x:c r="Q4" s="19" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="N4" s="19" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="O4" s="19" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="P4" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="Q4" s="19" t="s">
-        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="B5" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D5" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E5" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F5" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G5" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H5" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I5" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J5" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K5" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L5" s="19" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="M5" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N5" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="O5" s="19" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D5" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E5" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F5" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G5" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H5" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I5" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J5" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="K5" s="19" t="s">
+      <x:c r="P5" s="19" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="L5" s="19" t="s">
+      <x:c r="Q5" s="19" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="M5" s="19" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="N5" s="19" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="O5" s="19" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="P5" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="Q5" s="19" t="s">
-        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
       <x:c r="B6" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D6" s="19" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E6" s="19" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F6" s="19" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D6" s="19" t="s">
+      <x:c r="G6" s="19" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="E6" s="19" t="s">
+      <x:c r="H6" s="19" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="F6" s="19" t="s">
+      <x:c r="I6" s="19" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="G6" s="19" t="s">
+      <x:c r="J6" s="19" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="H6" s="19" t="s">
+      <x:c r="K6" s="19" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="I6" s="19" t="s">
+      <x:c r="L6" s="19" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="J6" s="19" t="s">
+      <x:c r="M6" s="19" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="K6" s="19" t="s">
+      <x:c r="N6" s="19" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="L6" s="19" t="s">
+      <x:c r="O6" s="19" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="M6" s="19" t="s">
+      <x:c r="P6" s="19" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="N6" s="19" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="O6" s="19" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="P6" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -3369,49 +3582,49 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D7" s="19" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E7" s="19" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D7" s="19" t="s">
+      <x:c r="F7" s="19" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="E7" s="19" t="s">
+      <x:c r="G7" s="19" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="F7" s="19" t="s">
+      <x:c r="H7" s="19" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="G7" s="19" t="s">
+      <x:c r="I7" s="19" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="H7" s="19" t="s">
+      <x:c r="J7" s="19" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="I7" s="19" t="s">
+      <x:c r="K7" s="19" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="J7" s="19" t="s">
+      <x:c r="L7" s="19" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="K7" s="19" t="s">
+      <x:c r="M7" s="19" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="L7" s="19" t="s">
+      <x:c r="N7" s="19" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="M7" s="19" t="s">
+      <x:c r="O7" s="19" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="N7" s="19" t="s">
+      <x:c r="P7" s="19" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="O7" s="19" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="P7" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
@@ -3419,54 +3632,54 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D8" s="19" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D8" s="19" t="s">
+      <x:c r="E8" s="19" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="E8" s="19" t="s">
+      <x:c r="F8" s="19" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="F8" s="19" t="s">
+      <x:c r="G8" s="19" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="G8" s="19" t="s">
+      <x:c r="H8" s="19" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="H8" s="19" t="s">
+      <x:c r="I8" s="19" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="I8" s="19" t="s">
+      <x:c r="J8" s="19" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="J8" s="19" t="s">
+      <x:c r="K8" s="19" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="K8" s="19" t="s">
+      <x:c r="L8" s="19" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="L8" s="19" t="s">
+      <x:c r="M8" s="19" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="M8" s="19" t="s">
+      <x:c r="N8" s="19" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="N8" s="19" t="s">
+      <x:c r="O8" s="19" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="O8" s="19" t="s">
+      <x:c r="P8" s="19" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="P8" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
         <x:v>130</x:v>
@@ -3508,21 +3721,21 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
         <x:v>56</x:v>
@@ -3531,48 +3744,48 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>147</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
         <x:v>56</x:v>
@@ -3596,13 +3809,13 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
         <x:v>57</x:v>
@@ -3616,13 +3829,13 @@
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
         <x:v>56</x:v>
@@ -3631,37 +3844,37 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>154</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>156</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>157</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="M12" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="N12" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="O12" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P12" s="19" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="M12" s="19" t="s">
+      <x:c r="Q12" s="19" t="s">
         <x:v>160</x:v>
-      </x:c>
-      <x:c r="N12" s="19" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="O12" s="19" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="P12" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="Q12" s="19" t="s">
-        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -3669,175 +3882,175 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D13" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E13" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F13" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G13" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H13" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="19" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="J13" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K13" s="19" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="D13" s="19" t="s">
+      <x:c r="L13" s="19" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="E13" s="19" t="s">
+      <x:c r="M13" s="19" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="F13" s="19" t="s">
+      <x:c r="N13" s="19" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="G13" s="19" t="s">
+      <x:c r="O13" s="19" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="H13" s="19" t="s">
+      <x:c r="P13" s="19" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="I13" s="19" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="J13" s="19" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="K13" s="19" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="L13" s="19" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="M13" s="19" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="N13" s="19" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="O13" s="19" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="P13" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D14" s="19" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E14" s="19" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="F14" s="19" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="G14" s="19" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="H14" s="19" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I14" s="19" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J14" s="19" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="D14" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E14" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F14" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G14" s="19" t="s">
+      <x:c r="K14" s="19" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="H14" s="19" t="s">
+      <x:c r="L14" s="19" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="I14" s="19" t="s">
+      <x:c r="M14" s="19" t="s">
         <x:v>179</x:v>
       </x:c>
-      <x:c r="J14" s="19" t="s">
+      <x:c r="N14" s="19" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="K14" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="L14" s="19" t="s">
+      <x:c r="O14" s="19" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="M14" s="19" t="s">
+      <x:c r="P14" s="19" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="N14" s="19" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="O14" s="19" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="P14" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D15" s="19" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E15" s="19" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="D15" s="19" t="s">
+      <x:c r="F15" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G15" s="19" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="E15" s="19" t="s">
+      <x:c r="H15" s="19" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="F15" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G15" s="19" t="s">
+      <x:c r="I15" s="19" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="H15" s="19" t="s">
+      <x:c r="J15" s="19" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="I15" s="19" t="s">
+      <x:c r="K15" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L15" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="M15" s="19" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="J15" s="19" t="s">
+      <x:c r="N15" s="19" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="K15" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="L15" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="M15" s="19" t="s">
+      <x:c r="O15" s="19" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="N15" s="19" t="s">
+      <x:c r="P15" s="19" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="O15" s="19" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="P15" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D16" s="19" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="D16" s="19" t="s">
+      <x:c r="E16" s="19" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="E16" s="19" t="s">
+      <x:c r="F16" s="19" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="F16" s="19" t="s">
+      <x:c r="G16" s="19" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="G16" s="19" t="s">
+      <x:c r="H16" s="19" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="H16" s="19" t="s">
+      <x:c r="I16" s="19" t="s">
         <x:v>200</x:v>
-      </x:c>
-      <x:c r="I16" s="19" t="s">
-        <x:v>201</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
         <x:v>57</x:v>
@@ -3866,246 +4079,246 @@
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D17" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E17" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F17" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G17" s="19" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="D17" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E17" s="19" t="s">
+      <x:c r="H17" s="19" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="F17" s="19" t="s">
+      <x:c r="I17" s="19" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="G17" s="19" t="s">
+      <x:c r="J17" s="19" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="H17" s="19" t="s">
+      <x:c r="K17" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L17" s="19" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="I17" s="19" t="s">
+      <x:c r="M17" s="19" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="J17" s="19" t="s">
+      <x:c r="N17" s="19" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="K17" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="L17" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="M17" s="19" t="s">
+      <x:c r="O17" s="19" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="N17" s="19" t="s">
+      <x:c r="P17" s="19" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="O17" s="19" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="P17" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>213</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G18" s="19" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="G18" s="19" t="s">
+      <x:c r="H18" s="19" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="H18" s="19" t="s">
+      <x:c r="I18" s="19" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="I18" s="19" t="s">
+      <x:c r="J18" s="19" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="J18" s="19" t="s">
+      <x:c r="K18" s="19" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="K18" s="19" t="s">
+      <x:c r="L18" s="19" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="L18" s="19" t="s">
+      <x:c r="M18" s="19" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="M18" s="19" t="s">
+      <x:c r="N18" s="19" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="N18" s="19" t="s">
+      <x:c r="O18" s="19" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="O18" s="19" t="s">
+      <x:c r="P18" s="19" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="P18" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
       <x:c r="B19" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>226</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>227</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>228</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>229</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>230</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>232</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>233</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>234</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
       <x:c r="B20" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>235</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>236</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>237</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>238</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
       <x:c r="B21" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>242</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>243</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>244</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>245</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>246</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>119</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
         <x:v>57</x:v>
@@ -4116,131 +4329,131 @@
     </x:row>
     <x:row r="22" spans="1:36">
       <x:c r="B22" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>256</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
       <x:c r="B23" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>264</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G23" s="19" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="G23" s="19" t="s">
+      <x:c r="H23" s="19" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="H23" s="19" t="s">
+      <x:c r="I23" s="19" t="s">
         <x:v>267</x:v>
       </x:c>
-      <x:c r="I23" s="19" t="s">
+      <x:c r="J23" s="19" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="J23" s="19" t="s">
+      <x:c r="K23" s="19" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="K23" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
       <x:c r="B24" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>270</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
         <x:v>57</x:v>
@@ -4269,28 +4482,28 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
         <x:v>57</x:v>
@@ -4772,28 +4985,28 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
         <x:v>57</x:v>
@@ -4805,7 +5018,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
         <x:v>57</x:v>
